--- a/_materials/Awaj site map_09.09.18.xlsx
+++ b/_materials/Awaj site map_09.09.18.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Farzana 1/Dropbox/Consultancy/C&amp;A foundation/Awaj foundation/Website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\awaj\_materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16335" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +29,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,6 +300,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -574,19 +574,19 @@
   <dimension ref="A3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -620,7 +620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -637,7 +637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -651,7 +651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -665,52 +665,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
